--- a/skill.xlsx
+++ b/skill.xlsx
@@ -14,8 +14,216 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="O13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每个火球增加角度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+子弹旋转速度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+子弹准备回飞时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运动曲线倍率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+圆半径</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+伤害距离</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+播放特效后几秒处理伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+伤害检测半径</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+半径</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -209,6 +417,12 @@
     <t>火焰环绕</t>
   </si>
   <si>
+    <t>旋转护身符</t>
+  </si>
+  <si>
+    <t>SKill/Prefabs/rotateBullet</t>
+  </si>
+  <si>
     <t>电网</t>
   </si>
   <si>
@@ -224,7 +438,13 @@
     <t>落石</t>
   </si>
   <si>
+    <t>SKill/Prefabs/luoshi</t>
+  </si>
+  <si>
     <t>燃烧瓶</t>
+  </si>
+  <si>
+    <t>SKill/Prefabs/rsp</t>
   </si>
   <si>
     <t>表格说明</t>
@@ -253,12 +473,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,14 +488,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,7 +509,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,44 +531,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,25 +554,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,6 +565,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,6 +600,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +630,17 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -432,187 +663,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,6 +854,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,15 +881,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -661,21 +892,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +929,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -729,10 +960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,133 +972,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1225,8 +1456,12 @@
   <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1243,7 +1478,7 @@
     <col min="12" max="12" width="12.6666666666667" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="12.5555555555556" customWidth="1"/>
-    <col min="15" max="15" width="14.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1644,9 +1879,6 @@
       <c r="G17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>0.5</v>
-      </c>
       <c r="K17">
         <v>30</v>
       </c>
@@ -1686,18 +1918,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:15">
       <c r="A19" s="13">
         <v>1014</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1705,13 +1952,13 @@
         <v>1015</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H20">
         <v>0.5</v>
@@ -1728,7 +1975,7 @@
         <v>1016</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1737,44 +1984,60 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:15">
       <c r="A22" s="13">
         <v>1017</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>0.3</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="13">
         <v>1018</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>35</v>
+        <v>73</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>0.1</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:C2 D2 E2 F2 G2 H2 I2 J2:XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:C2 D2 E2 F2 G2 H2 I2 J2:O2 P2:XFD2">
       <formula1>_help!$A:$A</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:C3 D3 E3 F3 G3 H3 I3 J3:XFD3 A4:C4 D4 E4 F4 G4 H4 I4 J4:XFD4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:C3 D3 E3 F3 G3 H3 I3 J3:O3 P3:XFD3 A4:C4 D4 E4 F4 G4 H4 I4 J4:O4 P4:XFD4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1799,7 +2062,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1807,7 +2070,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1815,23 +2078,23 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
